--- a/teaching/traditional_assets/database/data/luxembourg/luxembourg_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/luxembourg/luxembourg_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,26 +590,8 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.6709999999999999</v>
-      </c>
-      <c r="G2">
-        <v>0.03275190432474009</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.01361678218303037</v>
-      </c>
-      <c r="J2">
-        <v>0.01361678218303037</v>
-      </c>
       <c r="K2">
-        <v>-16.287</v>
-      </c>
-      <c r="L2">
-        <v>-0.4041138376795772</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -617,86 +599,71 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>-0</v>
-      </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2">
-        <v>-0</v>
-      </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>22.83</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.127407407407407</v>
-      </c>
-      <c r="W2">
-        <v>-0.8947878264208908</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.07037493120551822</v>
-      </c>
-      <c r="Y2">
-        <v>-0.965162757626409</v>
+        <v>0.02660589959388825</v>
       </c>
       <c r="Z2">
-        <v>0.2738980069286564</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.002054865782327235</v>
+        <v>0.0969825010822629</v>
       </c>
       <c r="AB2">
-        <v>0.03322813859867046</v>
+        <v>0.02210552016567354</v>
       </c>
       <c r="AC2">
-        <v>-0.03117327281634323</v>
+        <v>0.07487698091658937</v>
       </c>
       <c r="AD2">
-        <v>169.7</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>3.756014138386635</v>
+        <v>1.545545607324719</v>
       </c>
       <c r="AF2">
-        <v>173.4560141383866</v>
+        <v>1.545545607324719</v>
       </c>
       <c r="AG2">
-        <v>150.6260141383866</v>
+        <v>1.545545607324719</v>
       </c>
       <c r="AH2">
-        <v>0.8954601379308075</v>
+        <v>0.6215633458609977</v>
       </c>
       <c r="AI2">
-        <v>0.8253678337473928</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.8814930222822249</v>
+        <v>0.6215633458609977</v>
       </c>
       <c r="AK2">
-        <v>0.8040848722009962</v>
+        <v>1</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-3.17</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>130.5384615384615</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>115.8661647218358</v>
-      </c>
-      <c r="AQ2">
-        <v>-0</v>
+        <v>3.367201758877383</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +674,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blue Marlin Holdings S.A. (BDL:INSIN)</t>
+          <t>MyBucks S.A. (XTRA:MBC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -715,26 +682,8 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.6709999999999999</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>-0.487</v>
-      </c>
-      <c r="L3">
-        <v>-162.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -742,71 +691,59 @@
       <c r="N3">
         <v>-0</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
         <v>-0</v>
       </c>
       <c r="Q3">
         <v>-0</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.2434285714285714</v>
-      </c>
-      <c r="W3">
-        <v>-0.02618279569892473</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.02697733977922131</v>
-      </c>
-      <c r="Y3">
-        <v>-0.05316013547814603</v>
+        <v>0.02660589959388825</v>
       </c>
       <c r="Z3">
-        <v>0.0002204261572373255</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.0969825010822629</v>
       </c>
       <c r="AB3">
-        <v>0.02697733977922131</v>
+        <v>0.02210552016567354</v>
       </c>
       <c r="AC3">
-        <v>-0.02697733977922131</v>
+        <v>0.07487698091658937</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.545545607324719</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.545545607324719</v>
       </c>
       <c r="AG3">
-        <v>-2.13</v>
+        <v>1.545545607324719</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.6215633458609977</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>-0.3217522658610272</v>
+        <v>0.6215633458609977</v>
       </c>
       <c r="AK3">
-        <v>-0.1368015414258189</v>
+        <v>1</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -814,127 +751,11 @@
       <c r="AM3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Luxembourg</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MyBucks S.A. (XTRA:MBC)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>0.03275434243176179</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.01361779583927228</v>
-      </c>
-      <c r="J4">
-        <v>0.01361779583927228</v>
-      </c>
-      <c r="K4">
-        <v>-15.8</v>
-      </c>
-      <c r="L4">
-        <v>-0.392059553349876</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>20.7</v>
-      </c>
-      <c r="V4">
-        <v>1.8</v>
-      </c>
-      <c r="W4">
-        <v>-1.763392857142857</v>
-      </c>
-      <c r="X4">
-        <v>0.1137725226318151</v>
-      </c>
-      <c r="Y4">
-        <v>-1.877165379774672</v>
-      </c>
-      <c r="Z4">
-        <v>0.3017912453058253</v>
-      </c>
-      <c r="AA4">
-        <v>0.004109731564654469</v>
-      </c>
-      <c r="AB4">
-        <v>0.03947893741811962</v>
-      </c>
-      <c r="AC4">
-        <v>-0.03536920585346515</v>
-      </c>
-      <c r="AD4">
-        <v>169.7</v>
-      </c>
-      <c r="AE4">
-        <v>3.756014138386635</v>
-      </c>
-      <c r="AF4">
-        <v>173.4560141383866</v>
-      </c>
-      <c r="AG4">
-        <v>152.7560141383866</v>
-      </c>
-      <c r="AH4">
-        <v>0.9378230545593638</v>
-      </c>
-      <c r="AI4">
-        <v>0.9012761430965834</v>
-      </c>
-      <c r="AJ4">
-        <v>0.9299873428664159</v>
-      </c>
-      <c r="AK4">
-        <v>0.8893779638790907</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>-3.17</v>
-      </c>
-      <c r="AN4">
-        <v>130.5384615384615</v>
-      </c>
-      <c r="AP4">
-        <v>117.5046262602974</v>
-      </c>
-      <c r="AQ4">
-        <v>-0</v>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>3.367201758877383</v>
       </c>
     </row>
   </sheetData>
